--- a/Q_A.xlsx
+++ b/Q_A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucky Boy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DemoLuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,9 +477,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
